--- a/documents/QA - UnitTesting - BinaryKing.xlsx
+++ b/documents/QA - UnitTesting - BinaryKing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teodor Madjarov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teodor Madjarov\source\repos\2223-9th-grade-sprint-math-games-twenty-one\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E48E456D-2D1F-4104-893B-FF14E6EA8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0CB30-9749-49E6-95BE-455581F62195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B952D1FD-FFD1-437D-96A0-DCBAAD4D345D}"/>
+    <workbookView xWindow="3660" yWindow="1455" windowWidth="14385" windowHeight="11385" xr2:uid="{B952D1FD-FFD1-437D-96A0-DCBAAD4D345D}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit testing" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Test Case 1</t>
   </si>
@@ -130,6 +130,51 @@
   </si>
   <si>
     <t>move()</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>additionNums();</t>
+  </si>
+  <si>
+    <t>congame()</t>
+  </si>
+  <si>
+    <t>conGame()</t>
+  </si>
+  <si>
+    <t>main()</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>decimal();</t>
+  </si>
+  <si>
+    <t>binary()</t>
+  </si>
+  <si>
+    <t>binNum()</t>
+  </si>
+  <si>
+    <t>screen()</t>
   </si>
 </sst>
 </file>
@@ -378,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,7 +443,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,98 +515,108 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,77 +960,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F07359-3598-4E96-9808-1C0C821FE9E3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="6" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
@@ -930,36 +1050,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
@@ -977,97 +1097,97 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="21">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="21">
+      <c r="B12" s="35"/>
+      <c r="C12" s="38">
         <v>44646</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -1085,535 +1205,676 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="15" t="s">
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15">
         <v>1</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="15" t="s">
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="38">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="17" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13">
         <v>3</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15">
+        <v>4</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11">
+        <v>6</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13">
+        <v>7</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="66"/>
+      <c r="K21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15">
         <v>8</v>
       </c>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="10" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11">
+        <v>9</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13">
+        <v>10</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="66"/>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="15">
+        <v>11</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11">
+        <v>12</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13">
+        <v>13</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="66"/>
+      <c r="K27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A28" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="21">
-      <c r="A24" s="11" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="21">
+      <c r="A31" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="12" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13" t="s">
+      <c r="H32" s="35"/>
+      <c r="I32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="15" t="s">
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="21">
+      <c r="B34" s="35"/>
+      <c r="C34" s="55">
         <v>44640</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="10" t="s">
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" ht="21">
-      <c r="A32" s="11" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A39" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A40" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12" t="s">
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13" t="s">
+      <c r="H40" s="30"/>
+      <c r="I40" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="15" t="s">
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="21">
+      <c r="B42" s="35"/>
+      <c r="C42" s="38">
         <v>44640</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13" t="s">
+      <c r="H42" s="30"/>
+      <c r="I42" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" ht="18.75">
-      <c r="A37" s="14" t="s">
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A44" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12" t="s">
+      <c r="H44" s="30"/>
+      <c r="I44" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="4" t="s">
+      <c r="J44" s="30"/>
+      <c r="K44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L44" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="18.75">
-      <c r="A38" s="17" t="s">
+      <c r="M44" s="30"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A45" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="24" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="22" t="s">
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="22" t="s">
+      <c r="H45" s="28"/>
+      <c r="I45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="5" t="s">
+      <c r="J45" s="28"/>
+      <c r="K45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L45" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="26"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="42"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="M41" s="43"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="M42" s="43"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="M43" s="43"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="M44" s="43"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="M45" s="43"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="42"/>
-    </row>
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I35:M36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A30:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:M34"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:M28"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:M26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
+  <mergeCells count="72">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C16:F27"/>
+    <mergeCell ref="L16:M27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A1:M4"/>
+    <mergeCell ref="A6:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:M11"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:M13"/>
     <mergeCell ref="A15:B15"/>
@@ -1621,16 +1882,47 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A1:M4"/>
-    <mergeCell ref="A6:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:M35"/>
+    <mergeCell ref="A28:M29"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:M33"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I42:M43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A37:M38"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:M41"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="I12:M13 I27:M28 I35:M36 L16:L18 L32 L38">
+  <conditionalFormatting sqref="I12:M13 I34:M35 I42:M43 L39 L45 L16">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
@@ -1650,7 +1942,7 @@
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I12:M13 I27:M28 L16:L18 I35:M36 L38 L32</xm:sqref>
+          <xm:sqref>I12:M13 I34:M35 L39 I42:M43 L45 L16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
